--- a/spec/data/testWorkbook_noNil.xlsx
+++ b/spec/data/testWorkbook_noNil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kurmasz/Documents/Code/AltGradebook/spec/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9624939-7881-764C-93D7-3F45E68FD302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4F29D3-348C-6944-B304-81AC015AC18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="1700" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="1200" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="131">
   <si>
     <t>Last Name</t>
   </si>
@@ -417,10 +417,19 @@
     <t>c</t>
   </si>
   <si>
-    <t>m|1</t>
-  </si>
-  <si>
-    <t>p|5</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>A|5</t>
+  </si>
+  <si>
+    <t>D|10</t>
   </si>
 </sst>
 </file>
@@ -848,7 +857,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -1206,7 +1215,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1:M17"/>
+      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -2666,11 +2675,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1:G17"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -2763,8 +2772,8 @@
         <f>info!F3</f>
         <v>CS</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>91</v>
+      <c r="G3" s="7" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.15">
@@ -2792,8 +2801,8 @@
         <f>info!F4</f>
         <v>IS</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>91</v>
+      <c r="G4" s="7" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="13" x14ac:dyDescent="0.15">
@@ -2821,8 +2830,8 @@
         <f>info!F5</f>
         <v xml:space="preserve">CS </v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>91</v>
+      <c r="G5" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13" x14ac:dyDescent="0.15">
@@ -2850,8 +2859,8 @@
         <f>info!F6</f>
         <v>IT</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>91</v>
+      <c r="G6" s="7" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13" x14ac:dyDescent="0.15">
@@ -2879,8 +2888,8 @@
         <f>info!F7</f>
         <v>CYB</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>126</v>
+      <c r="G7" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.15">
@@ -2908,8 +2917,8 @@
         <f>info!F8</f>
         <v>CYB</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>91</v>
+      <c r="G8" s="7" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13" x14ac:dyDescent="0.15">
@@ -2937,8 +2946,8 @@
         <f>info!F9</f>
         <v>CS</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>90</v>
+      <c r="G9" s="7" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="13" x14ac:dyDescent="0.15">
@@ -2966,8 +2975,8 @@
         <f>info!F10</f>
         <v>CS</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>90</v>
+      <c r="G10" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.15">
@@ -2995,8 +3004,8 @@
         <f>info!F11</f>
         <v>CS</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>93</v>
+      <c r="G11" s="7" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13" x14ac:dyDescent="0.15">
@@ -3024,8 +3033,8 @@
         <f>info!F12</f>
         <v>IS</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>98</v>
+      <c r="G12" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="13" x14ac:dyDescent="0.15">
@@ -3053,8 +3062,8 @@
         <f>info!F13</f>
         <v>CYB</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>98</v>
+      <c r="G13" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13" x14ac:dyDescent="0.15">
@@ -3082,8 +3091,8 @@
         <f>info!F14</f>
         <v>IT</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>93</v>
+      <c r="G14" s="7" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.15">
@@ -3111,8 +3120,8 @@
         <f>info!F15</f>
         <v>CS</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>91</v>
+      <c r="G15" s="7" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.15">
@@ -3140,8 +3149,8 @@
         <f>info!F16</f>
         <v>CS</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>127</v>
+      <c r="G16" s="7" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="13" x14ac:dyDescent="0.15">
@@ -3169,8 +3178,8 @@
         <f>info!F17</f>
         <v>CS</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>91</v>
+      <c r="G17" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3183,7 +3192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
